--- a/info/Tences.xlsx
+++ b/info/Tences.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"> The police are checking for similarities with other recent attacks in the area.</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Their engagement was announced in the paper.</t>
   </si>
   <si>
-    <t>№</t>
-  </si>
-  <si>
     <t>A debt reduction scheme was agreed in outline.</t>
   </si>
   <si>
@@ -79,6 +76,18 @@
   </si>
   <si>
     <t>Hurry up! Everyone's waiting.</t>
+  </si>
+  <si>
+    <t>She has been undergoing tests since Monday.</t>
+  </si>
+  <si>
+    <t>Актив - Настоящее - Долго - Утверждение</t>
+  </si>
+  <si>
+    <t>The issue will be debated on Tuesday.</t>
+  </si>
+  <si>
+    <t>We've switched the meeting from Tuesday to Thursday.</t>
   </si>
 </sst>
 </file>
@@ -95,10 +104,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Lucida Sans Unicode"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +135,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,108 +439,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/info/Tences.xlsx
+++ b/info/Tences.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve"> The police are checking for similarities with other recent attacks in the area.</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>We've switched the meeting from Tuesday to Thursday.</t>
+  </si>
+  <si>
+    <t>We've been waiting ages.</t>
+  </si>
+  <si>
+    <t>The proposal was strongly resisted by the police.</t>
   </si>
 </sst>
 </file>
@@ -439,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +525,11 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
@@ -552,6 +563,11 @@
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
